--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Route Mobile Ltd/Pruned_Excel/Semi_Final/Route Mobile Ltd_Semi_Final.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Route Mobile Ltd/Pruned_Excel/Semi_Final/Route Mobile Ltd_Semi_Final.xlsx
@@ -18,11 +18,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="100">
   <si>
     <t>Balance Sheet of Route Mobile(in Rs. Cr.)</t>
   </si>
   <si>
+    <t>Month</t>
+  </si>
+  <si>
     <t>Total share capital</t>
   </si>
   <si>
@@ -59,31 +62,34 @@
     <t>Total assets</t>
   </si>
   <si>
-    <t>Mar 16</t>
-  </si>
-  <si>
-    <t>Mar 17</t>
-  </si>
-  <si>
-    <t>Mar 18</t>
-  </si>
-  <si>
-    <t>Mar 19</t>
-  </si>
-  <si>
-    <t>Mar 20</t>
-  </si>
-  <si>
-    <t>Mar 21</t>
-  </si>
-  <si>
-    <t>Mar 22</t>
-  </si>
-  <si>
-    <t>Mar 23</t>
-  </si>
-  <si>
-    <t>Mar 24</t>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>03</t>
   </si>
   <si>
     <t>Cash Flow of Route Mobile(in Rs. Cr.)</t>
@@ -182,9 +188,6 @@
     <t>Quarterly Results of Route Mobile(in Rs. Cr.)</t>
   </si>
   <si>
-    <t>Month</t>
-  </si>
-  <si>
     <t>Quarter</t>
   </si>
   <si>
@@ -242,28 +245,7 @@
     <t>Diluted eps.</t>
   </si>
   <si>
-    <t>2019</t>
-  </si>
-  <si>
-    <t>2020</t>
-  </si>
-  <si>
-    <t>2021</t>
-  </si>
-  <si>
-    <t>2022</t>
-  </si>
-  <si>
-    <t>2023</t>
-  </si>
-  <si>
-    <t>2024</t>
-  </si>
-  <si>
     <t>12</t>
-  </si>
-  <si>
-    <t>03</t>
   </si>
   <si>
     <t>06</t>
@@ -693,13 +675,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -739,373 +721,403 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2">
         <v>20</v>
-      </c>
-      <c r="C2">
-        <v>9.039999999999999</v>
       </c>
       <c r="D2">
         <v>9.039999999999999</v>
       </c>
       <c r="E2">
+        <v>9.039999999999999</v>
+      </c>
+      <c r="F2">
         <v>29.04</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>49.46</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>55.48</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>85.47</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>8.289999999999999</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>10.2</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>40.02</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>45.46</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>85.47</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3">
         <v>50</v>
-      </c>
-      <c r="C3">
-        <v>30.44</v>
       </c>
       <c r="D3">
         <v>30.44</v>
       </c>
       <c r="E3">
+        <v>30.44</v>
+      </c>
+      <c r="F3">
         <v>80.44</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>13.82</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>39.68</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>123.74</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>15.68</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>17.27</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>48.22</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>75.53</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>123.74</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4">
         <v>50</v>
-      </c>
-      <c r="C4">
-        <v>33.74</v>
       </c>
       <c r="D4">
         <v>33.74</v>
       </c>
       <c r="E4">
+        <v>33.74</v>
+      </c>
+      <c r="F4">
         <v>83.73999999999999</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>10.78</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>72.5</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>159.44</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>13.16</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>13.79</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>53.26</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>106.17</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>159.44</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5">
         <v>50</v>
-      </c>
-      <c r="C5">
-        <v>33.8</v>
       </c>
       <c r="D5">
         <v>33.8</v>
       </c>
       <c r="E5">
+        <v>33.8</v>
+      </c>
+      <c r="F5">
         <v>83.8</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>22.82</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>134.94</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>221.44</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>10.66</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>13.32</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>64.68000000000001</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>156.76</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>221.44</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6">
         <v>50</v>
-      </c>
-      <c r="C6">
-        <v>24.32</v>
       </c>
       <c r="D6">
         <v>24.32</v>
       </c>
       <c r="E6">
+        <v>24.32</v>
+      </c>
+      <c r="F6">
         <v>74.31999999999999</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>19.73</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>247.21</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>324.02</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>9.699999999999999</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>13.08</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>65.91</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>258.11</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>324.02</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7">
         <v>57.71</v>
-      </c>
-      <c r="C7">
-        <v>287.03</v>
       </c>
       <c r="D7">
         <v>287.03</v>
       </c>
       <c r="E7">
+        <v>287.03</v>
+      </c>
+      <c r="F7">
         <v>344.74</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>40.7</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>232.5</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>589.4</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>20.4</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>38.14</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>100.33</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>489.07</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>589.4</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:14">
       <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8">
         <v>62.87</v>
-      </c>
-      <c r="C8">
-        <v>1143.23</v>
       </c>
       <c r="D8">
         <v>1143.23</v>
       </c>
       <c r="E8">
+        <v>1143.23</v>
+      </c>
+      <c r="F8">
         <v>1224.97</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>46.23</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>87.34999999999999</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>1328.14</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>22.99</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>60.38</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>136.84</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>1191.3</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>1328.14</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:14">
       <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9">
         <v>62.44</v>
-      </c>
-      <c r="C9">
-        <v>1064.02</v>
       </c>
       <c r="D9">
         <v>1064.02</v>
       </c>
       <c r="E9">
+        <v>1064.02</v>
+      </c>
+      <c r="F9">
         <v>1126.46</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>25.04</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>130.25</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>1270.53</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>24.43</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>55.22</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>122.78</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>1147.75</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>1270.53</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:14">
       <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10">
         <v>62.79</v>
-      </c>
-      <c r="C10">
-        <v>1097.88</v>
       </c>
       <c r="D10">
         <v>1097.88</v>
       </c>
       <c r="E10">
+        <v>1097.88</v>
+      </c>
+      <c r="F10">
         <v>1188.77</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>21.34</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>171</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>1371.48</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>29.59</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>58.24</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>395.34</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>976.14</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>1371.48</v>
       </c>
     </row>
@@ -1116,299 +1128,329 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2">
+        <v>43.47</v>
+      </c>
+      <c r="D2">
+        <v>69.75</v>
+      </c>
+      <c r="E2">
+        <v>-36.04</v>
+      </c>
+      <c r="F2">
+        <v>-32.9</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="I2">
+        <v>4.1</v>
+      </c>
+      <c r="J2">
+        <v>4.91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3">
+        <v>70.06</v>
+      </c>
+      <c r="D3">
+        <v>-24.78</v>
+      </c>
+      <c r="E3">
+        <v>26.24</v>
+      </c>
+      <c r="F3">
+        <v>14.37</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>15.83</v>
+      </c>
+      <c r="I3">
+        <v>4.91</v>
+      </c>
+      <c r="J3">
+        <v>20.73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4">
+        <v>17.61</v>
+      </c>
+      <c r="D4">
+        <v>-24.76</v>
+      </c>
+      <c r="E4">
+        <v>9.359999999999999</v>
+      </c>
+      <c r="F4">
+        <v>-2.41</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>-17.81</v>
+      </c>
+      <c r="I4">
+        <v>20.73</v>
+      </c>
+      <c r="J4">
+        <v>2.92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5">
+        <v>12.82</v>
+      </c>
+      <c r="D5">
+        <v>24.72</v>
+      </c>
+      <c r="E5">
+        <v>-9.109999999999999</v>
+      </c>
+      <c r="F5">
+        <v>-14.72</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0.89</v>
+      </c>
+      <c r="I5">
+        <v>2.92</v>
+      </c>
+      <c r="J5">
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6">
+        <v>10.08</v>
+      </c>
+      <c r="D6">
+        <v>39.36</v>
+      </c>
+      <c r="E6">
+        <v>-11.33</v>
+      </c>
+      <c r="F6">
+        <v>-8.91</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>19.12</v>
+      </c>
+      <c r="I6">
+        <v>3.81</v>
+      </c>
+      <c r="J6">
+        <v>22.93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7">
+        <v>29.77</v>
+      </c>
+      <c r="D7">
+        <v>93.5</v>
+      </c>
+      <c r="E7">
+        <v>-201.47</v>
+      </c>
+      <c r="F7">
+        <v>214.75</v>
+      </c>
+      <c r="G7">
+        <v>-0.44</v>
+      </c>
+      <c r="H7">
+        <v>106.34</v>
+      </c>
+      <c r="I7">
+        <v>22.93</v>
+      </c>
+      <c r="J7">
+        <v>129.27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8">
+        <v>33.42</v>
+      </c>
+      <c r="D8">
+        <v>-176.71</v>
+      </c>
+      <c r="E8">
+        <v>-592.9</v>
+      </c>
+      <c r="F8">
+        <v>830.5</v>
+      </c>
+      <c r="G8">
+        <v>0.09</v>
+      </c>
+      <c r="H8">
+        <v>60.98</v>
+      </c>
+      <c r="I8">
+        <v>129.27</v>
+      </c>
+      <c r="J8">
+        <v>190.25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9">
+        <v>109.83</v>
+      </c>
+      <c r="D9">
+        <v>-5.75</v>
+      </c>
+      <c r="E9">
+        <v>168.34</v>
+      </c>
+      <c r="F9">
+        <v>-208.69</v>
+      </c>
+      <c r="G9">
+        <v>0.28</v>
+      </c>
+      <c r="H9">
+        <v>-45.82</v>
+      </c>
+      <c r="I9">
+        <v>190.25</v>
+      </c>
+      <c r="J9">
+        <v>144.43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B10" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2">
-        <v>43.47</v>
-      </c>
-      <c r="C2">
-        <v>69.75</v>
-      </c>
-      <c r="D2">
-        <v>-36.04</v>
-      </c>
-      <c r="E2">
-        <v>-32.9</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="H2">
-        <v>4.1</v>
-      </c>
-      <c r="I2">
-        <v>4.91</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3">
-        <v>70.06</v>
-      </c>
-      <c r="C3">
-        <v>-24.78</v>
-      </c>
-      <c r="D3">
-        <v>26.24</v>
-      </c>
-      <c r="E3">
-        <v>14.37</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>15.83</v>
-      </c>
-      <c r="H3">
-        <v>4.91</v>
-      </c>
-      <c r="I3">
-        <v>20.73</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4">
-        <v>17.61</v>
-      </c>
-      <c r="C4">
-        <v>-24.76</v>
-      </c>
-      <c r="D4">
-        <v>9.359999999999999</v>
-      </c>
-      <c r="E4">
-        <v>-2.41</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>-17.81</v>
-      </c>
-      <c r="H4">
-        <v>20.73</v>
-      </c>
-      <c r="I4">
-        <v>2.92</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5">
-        <v>12.82</v>
-      </c>
-      <c r="C5">
-        <v>24.72</v>
-      </c>
-      <c r="D5">
-        <v>-9.109999999999999</v>
-      </c>
-      <c r="E5">
-        <v>-14.72</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0.89</v>
-      </c>
-      <c r="H5">
-        <v>2.92</v>
-      </c>
-      <c r="I5">
-        <v>3.81</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6">
-        <v>10.08</v>
-      </c>
-      <c r="C6">
-        <v>39.36</v>
-      </c>
-      <c r="D6">
-        <v>-11.33</v>
-      </c>
-      <c r="E6">
-        <v>-8.91</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>19.12</v>
-      </c>
-      <c r="H6">
-        <v>3.81</v>
-      </c>
-      <c r="I6">
-        <v>22.93</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7">
-        <v>29.77</v>
-      </c>
-      <c r="C7">
-        <v>93.5</v>
-      </c>
-      <c r="D7">
-        <v>-201.47</v>
-      </c>
-      <c r="E7">
-        <v>214.75</v>
-      </c>
-      <c r="F7">
-        <v>-0.44</v>
-      </c>
-      <c r="G7">
-        <v>106.34</v>
-      </c>
-      <c r="H7">
-        <v>22.93</v>
-      </c>
-      <c r="I7">
-        <v>129.27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8">
-        <v>33.42</v>
-      </c>
-      <c r="C8">
-        <v>-176.71</v>
-      </c>
-      <c r="D8">
-        <v>-592.9</v>
-      </c>
-      <c r="E8">
-        <v>830.5</v>
-      </c>
-      <c r="F8">
-        <v>0.09</v>
-      </c>
-      <c r="G8">
-        <v>60.98</v>
-      </c>
-      <c r="H8">
-        <v>129.27</v>
-      </c>
-      <c r="I8">
-        <v>190.25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9">
-        <v>109.83</v>
-      </c>
-      <c r="C9">
-        <v>-5.75</v>
-      </c>
-      <c r="D9">
-        <v>168.34</v>
-      </c>
-      <c r="E9">
-        <v>-208.69</v>
-      </c>
-      <c r="F9">
-        <v>0.28</v>
-      </c>
-      <c r="G9">
-        <v>-45.82</v>
-      </c>
-      <c r="H9">
-        <v>190.25</v>
-      </c>
-      <c r="I9">
+      <c r="C10">
+        <v>155.82</v>
+      </c>
+      <c r="D10">
+        <v>17.77</v>
+      </c>
+      <c r="E10">
+        <v>19.5</v>
+      </c>
+      <c r="F10">
+        <v>-63.07</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>-25.8</v>
+      </c>
+      <c r="I10">
         <v>144.43</v>
       </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10">
-        <v>155.82</v>
-      </c>
-      <c r="C10">
-        <v>17.77</v>
-      </c>
-      <c r="D10">
-        <v>19.5</v>
-      </c>
-      <c r="E10">
-        <v>-63.07</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>-25.8</v>
-      </c>
-      <c r="H10">
-        <v>144.43</v>
-      </c>
-      <c r="I10">
+      <c r="J10">
         <v>118.63</v>
       </c>
     </row>
@@ -1419,86 +1461,89 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V10"/>
+  <dimension ref="A1:W10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22">
+        <v>53</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2">
-        <v>188.41</v>
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
       </c>
       <c r="C2">
         <v>188.41</v>
@@ -1507,66 +1552,69 @@
         <v>188.41</v>
       </c>
       <c r="E2">
+        <v>188.41</v>
+      </c>
+      <c r="F2">
         <v>3.43</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>191.83</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>121.19</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>10.66</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>0.76</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>2.3</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>11.73</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>146.65</v>
-      </c>
-      <c r="M2">
-        <v>45.18</v>
       </c>
       <c r="N2">
         <v>45.18</v>
       </c>
       <c r="O2">
+        <v>45.18</v>
+      </c>
+      <c r="P2">
         <v>16.27</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>-0.66</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>15.6</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>29.58</v>
-      </c>
-      <c r="S2">
-        <v>27.87</v>
       </c>
       <c r="T2">
         <v>27.87</v>
       </c>
       <c r="U2">
-        <v>5.57</v>
+        <v>27.87</v>
       </c>
       <c r="V2">
         <v>5.57</v>
       </c>
-    </row>
-    <row r="3" spans="1:22">
+      <c r="W2">
+        <v>5.57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3">
-        <v>168.42</v>
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
       </c>
       <c r="C3">
         <v>168.42</v>
@@ -1575,66 +1623,69 @@
         <v>168.42</v>
       </c>
       <c r="E3">
+        <v>168.42</v>
+      </c>
+      <c r="F3">
         <v>40.05</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>208.47</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>100.89</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>18.18</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>0.51</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>4.85</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>13.36</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>137.79</v>
-      </c>
-      <c r="M3">
-        <v>70.68000000000001</v>
       </c>
       <c r="N3">
         <v>70.68000000000001</v>
       </c>
       <c r="O3">
+        <v>70.68000000000001</v>
+      </c>
+      <c r="P3">
         <v>19.12</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>-0.71</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>18.66</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>52.02</v>
-      </c>
-      <c r="S3">
-        <v>51.4</v>
       </c>
       <c r="T3">
         <v>51.4</v>
       </c>
       <c r="U3">
-        <v>10.28</v>
+        <v>51.4</v>
       </c>
       <c r="V3">
         <v>10.28</v>
       </c>
-    </row>
-    <row r="4" spans="1:22">
+      <c r="W3">
+        <v>10.28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4">
-        <v>195.06</v>
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
       </c>
       <c r="C4">
         <v>195.06</v>
@@ -1643,46 +1694,46 @@
         <v>195.06</v>
       </c>
       <c r="E4">
+        <v>195.06</v>
+      </c>
+      <c r="F4">
         <v>3.7</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>198.76</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>137.76</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>21.86</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>0.75</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>5.8</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>14.97</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>181.15</v>
-      </c>
-      <c r="M4">
-        <v>17.61</v>
       </c>
       <c r="N4">
         <v>17.61</v>
       </c>
       <c r="O4">
+        <v>17.61</v>
+      </c>
+      <c r="P4">
         <v>7.76</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>-1.1</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>6.67</v>
-      </c>
-      <c r="R4">
-        <v>10.94</v>
       </c>
       <c r="S4">
         <v>10.94</v>
@@ -1691,18 +1742,21 @@
         <v>10.94</v>
       </c>
       <c r="U4">
-        <v>2.19</v>
+        <v>10.94</v>
       </c>
       <c r="V4">
         <v>2.19</v>
       </c>
-    </row>
-    <row r="5" spans="1:22">
+      <c r="W4">
+        <v>2.19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5">
-        <v>373.97</v>
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
       </c>
       <c r="C5">
         <v>373.97</v>
@@ -1711,46 +1765,46 @@
         <v>373.97</v>
       </c>
       <c r="E5">
+        <v>373.97</v>
+      </c>
+      <c r="F5">
         <v>4.35</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>378.32</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>325.27</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>20.99</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>1.57</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>4.66</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>13.02</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>365.5</v>
-      </c>
-      <c r="M5">
-        <v>12.82</v>
       </c>
       <c r="N5">
         <v>12.82</v>
       </c>
       <c r="O5">
+        <v>12.82</v>
+      </c>
+      <c r="P5">
         <v>5.26</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>-1.42</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>3.84</v>
-      </c>
-      <c r="R5">
-        <v>8.970000000000001</v>
       </c>
       <c r="S5">
         <v>8.970000000000001</v>
@@ -1759,18 +1813,21 @@
         <v>8.970000000000001</v>
       </c>
       <c r="U5">
-        <v>1.79</v>
+        <v>8.970000000000001</v>
       </c>
       <c r="V5">
         <v>1.79</v>
       </c>
-    </row>
-    <row r="6" spans="1:22">
+      <c r="W5">
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6">
-        <v>406.55</v>
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
       </c>
       <c r="C6">
         <v>406.55</v>
@@ -1779,46 +1836,46 @@
         <v>406.55</v>
       </c>
       <c r="E6">
+        <v>406.55</v>
+      </c>
+      <c r="F6">
         <v>18.54</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>425.09</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>354.72</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>22.58</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>2.8</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>6.34</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>15.18</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>401.61</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>23.47</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>10.08</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>1.88</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>0.66</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>2.54</v>
-      </c>
-      <c r="R6">
-        <v>7.55</v>
       </c>
       <c r="S6">
         <v>7.55</v>
@@ -1827,18 +1884,21 @@
         <v>7.55</v>
       </c>
       <c r="U6">
-        <v>1.51</v>
+        <v>7.55</v>
       </c>
       <c r="V6">
         <v>1.51</v>
       </c>
-    </row>
-    <row r="7" spans="1:22">
+      <c r="W6">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7">
-        <v>376.38</v>
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
       </c>
       <c r="C7">
         <v>376.38</v>
@@ -1847,46 +1907,46 @@
         <v>376.38</v>
       </c>
       <c r="E7">
+        <v>376.38</v>
+      </c>
+      <c r="F7">
         <v>11.57</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>387.96</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>305.66</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>28.9</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>1.79</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>10.38</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>11.46</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>358.19</v>
-      </c>
-      <c r="M7">
-        <v>29.77</v>
       </c>
       <c r="N7">
         <v>29.77</v>
       </c>
       <c r="O7">
+        <v>29.77</v>
+      </c>
+      <c r="P7">
         <v>6.83</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>0.61</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>7.44</v>
-      </c>
-      <c r="R7">
-        <v>22.33</v>
       </c>
       <c r="S7">
         <v>22.33</v>
@@ -1895,18 +1955,21 @@
         <v>22.33</v>
       </c>
       <c r="U7">
+        <v>22.33</v>
+      </c>
+      <c r="V7">
         <v>4.15</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>4.06</v>
       </c>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:23">
       <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8">
-        <v>333.81</v>
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
       </c>
       <c r="C8">
         <v>333.81</v>
@@ -1915,46 +1978,46 @@
         <v>333.81</v>
       </c>
       <c r="E8">
+        <v>333.81</v>
+      </c>
+      <c r="F8">
         <v>40.21</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>374.02</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>247.81</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>45.64</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>1.92</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>14.78</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>25.45</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>335.6</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>38.42</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>33.42</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>8.24</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>-2.58</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>5.66</v>
-      </c>
-      <c r="R8">
-        <v>27.76</v>
       </c>
       <c r="S8">
         <v>27.76</v>
@@ -1963,18 +2026,21 @@
         <v>27.76</v>
       </c>
       <c r="U8">
-        <v>4.65</v>
+        <v>27.76</v>
       </c>
       <c r="V8">
         <v>4.65</v>
       </c>
-    </row>
-    <row r="9" spans="1:22">
+      <c r="W8">
+        <v>4.65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9">
-        <v>535.8</v>
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
       </c>
       <c r="C9">
         <v>535.8</v>
@@ -1983,46 +2049,46 @@
         <v>535.8</v>
       </c>
       <c r="E9">
+        <v>535.8</v>
+      </c>
+      <c r="F9">
         <v>95.22</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>631.02</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>411.54</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>62.89</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>2.15</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>14.98</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>24.63</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>516.1900000000001</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>114.83</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>109.83</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>22.47</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>-2.47</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>20</v>
-      </c>
-      <c r="R9">
-        <v>89.83</v>
       </c>
       <c r="S9">
         <v>89.83</v>
@@ -2031,18 +2097,21 @@
         <v>89.83</v>
       </c>
       <c r="U9">
-        <v>14.36</v>
+        <v>89.83</v>
       </c>
       <c r="V9">
         <v>14.36</v>
       </c>
-    </row>
-    <row r="10" spans="1:22">
+      <c r="W9">
+        <v>14.36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
       <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10">
-        <v>667.08</v>
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
       </c>
       <c r="C10">
         <v>667.08</v>
@@ -2051,46 +2120,46 @@
         <v>667.08</v>
       </c>
       <c r="E10">
+        <v>667.08</v>
+      </c>
+      <c r="F10">
         <v>100.43</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>767.51</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>501.91</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>54.28</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>2.08</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>17.11</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>36.31</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>611.6900000000001</v>
-      </c>
-      <c r="M10">
-        <v>155.82</v>
       </c>
       <c r="N10">
         <v>155.82</v>
       </c>
       <c r="O10">
+        <v>155.82</v>
+      </c>
+      <c r="P10">
         <v>28.88</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>0.61</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>29.49</v>
-      </c>
-      <c r="R10">
-        <v>126.33</v>
       </c>
       <c r="S10">
         <v>126.33</v>
@@ -2099,9 +2168,12 @@
         <v>126.33</v>
       </c>
       <c r="U10">
+        <v>126.33</v>
+      </c>
+      <c r="V10">
         <v>20.19</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>19.63</v>
       </c>
     </row>
@@ -2120,84 +2192,84 @@
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:23">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D2">
         <v>93.98</v>
@@ -2262,13 +2334,13 @@
     </row>
     <row r="3" spans="1:23">
       <c r="A3" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D3">
         <v>108.25</v>
@@ -2333,13 +2405,13 @@
     </row>
     <row r="4" spans="1:23">
       <c r="A4" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C4" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D4">
         <v>100.87</v>
@@ -2404,13 +2476,13 @@
     </row>
     <row r="5" spans="1:23">
       <c r="A5" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C5" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D5">
         <v>93.31</v>
@@ -2475,13 +2547,13 @@
     </row>
     <row r="6" spans="1:23">
       <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
         <v>75</v>
       </c>
-      <c r="B6" t="s">
-        <v>80</v>
-      </c>
       <c r="C6" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D6">
         <v>91.27</v>
@@ -2546,13 +2618,13 @@
     </row>
     <row r="7" spans="1:23">
       <c r="A7" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D7">
         <v>90.94</v>
@@ -2617,13 +2689,13 @@
     </row>
     <row r="8" spans="1:23">
       <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
         <v>76</v>
       </c>
-      <c r="B8" t="s">
-        <v>82</v>
-      </c>
       <c r="C8" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D8">
         <v>58.37</v>
@@ -2688,13 +2760,13 @@
     </row>
     <row r="9" spans="1:23">
       <c r="A9" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C9" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D9">
         <v>85.65000000000001</v>
@@ -2759,13 +2831,13 @@
     </row>
     <row r="10" spans="1:23">
       <c r="A10" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C10" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D10">
         <v>90.14</v>
@@ -2830,13 +2902,13 @@
     </row>
     <row r="11" spans="1:23">
       <c r="A11" t="s">
-        <v>77</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D11">
         <v>99.66</v>
@@ -2901,13 +2973,13 @@
     </row>
     <row r="12" spans="1:23">
       <c r="A12" t="s">
-        <v>77</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C12" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D12">
         <v>132.73</v>
@@ -2972,13 +3044,13 @@
     </row>
     <row r="13" spans="1:23">
       <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
         <v>77</v>
       </c>
-      <c r="B13" t="s">
-        <v>83</v>
-      </c>
       <c r="C13" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D13">
         <v>141.61</v>
@@ -3043,13 +3115,13 @@
     </row>
     <row r="14" spans="1:23">
       <c r="A14" t="s">
-        <v>77</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C14" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D14">
         <v>132.27</v>
@@ -3114,13 +3186,13 @@
     </row>
     <row r="15" spans="1:23">
       <c r="A15" t="s">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D15">
         <v>129.19</v>
@@ -3185,13 +3257,13 @@
     </row>
     <row r="16" spans="1:23">
       <c r="A16" t="s">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C16" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D16">
         <v>146.47</v>
@@ -3256,13 +3328,13 @@
     </row>
     <row r="17" spans="1:23">
       <c r="A17" t="s">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C17" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D17">
         <v>160.75</v>
@@ -3327,13 +3399,13 @@
     </row>
     <row r="18" spans="1:23">
       <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" t="s">
         <v>78</v>
-      </c>
-      <c r="B18" t="s">
-        <v>80</v>
-      </c>
-      <c r="C18" t="s">
-        <v>84</v>
       </c>
       <c r="D18">
         <v>174.49</v>
@@ -3398,13 +3470,13 @@
     </row>
     <row r="19" spans="1:23">
       <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
         <v>79</v>
-      </c>
-      <c r="B19" t="s">
-        <v>81</v>
-      </c>
-      <c r="C19" t="s">
-        <v>85</v>
       </c>
       <c r="D19">
         <v>185.37</v>
@@ -3469,13 +3541,13 @@
     </row>
     <row r="20" spans="1:23">
       <c r="A20" t="s">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C20" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D20">
         <v>208.26</v>
@@ -3540,13 +3612,13 @@
     </row>
     <row r="21" spans="1:23">
       <c r="A21" t="s">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C21" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D21">
         <v>209.28</v>
@@ -3616,167 +3688,173 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R10"/>
+  <dimension ref="A1:S10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18">
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2">
         <v>94.2</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>24.12</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>22.97</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>22.59</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>13.94</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>25.6</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>24.38</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>23.98</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>14.79</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>95.98</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>32.6</v>
       </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
       <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
         <v>78.93000000000001</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>72.92</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>21.07</v>
       </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
       <c r="R2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:18">
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3">
         <v>33.68</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>15.21</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>14.24</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>14.14</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>10.28</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>45.14</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>42.26</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>41.96</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>30.52</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>63.9</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>41.54</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>0.22</v>
       </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
       <c r="O3">
         <v>0</v>
       </c>
@@ -3789,215 +3867,227 @@
       <c r="R3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:18">
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4">
         <v>39.01</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>4.83</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>3.67</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>3.52</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>2.19</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>12.38</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>9.41</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>9.02</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>5.61</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>13.06</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>6.86</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>0.29</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>68.53</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>44.78</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>31.47</v>
       </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
       <c r="R4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:18">
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5">
         <v>74.79000000000001</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>3.81</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>2.88</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>2.56</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>1.79</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>5.09</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>3.84</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>3.42</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>2.39</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>10.7</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>4.05</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>0.24</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>83.59999999999999</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>55.02</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>16.4</v>
       </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
       <c r="R5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:18">
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6">
         <v>81.31</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>6.52</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>5.25</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>2.02</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>1.51</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>8.02</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>6.46</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>2.48</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>1.85</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>10.15</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>2.32</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>0.51</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>198.75</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>107.99</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>-98.75</v>
       </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
       <c r="R6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:18">
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7">
         <v>65.22</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>7.27</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>5.47</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>5.16</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>3.87</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>11.14</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>8.380000000000001</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>7.9</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>5.93</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>6.47</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>3.78</v>
       </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
       <c r="N7">
         <v>0</v>
       </c>
@@ -4008,177 +4098,189 @@
         <v>0</v>
       </c>
       <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
         <v>7819.34</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>186.45</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:19">
       <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8">
         <v>53.1</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>8.77</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>6.42</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>5.32</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>4.42</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>16.51</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>12.08</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>10.01</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>8.31</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>2.26</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>2.09</v>
       </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
       <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
         <v>109.54</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>71.48</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>-9.539999999999999</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>8889.68</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>161.28</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:19">
       <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9">
         <v>85.81</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>21.13</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>18.73</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>17.59</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>14.39</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>24.62</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>21.83</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>20.49</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>16.76</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>7.97</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>7.07</v>
       </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
       <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
         <v>76.41</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>65.48</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>23.59</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>8023.03</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>60.8</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:19">
       <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10">
         <v>106.24</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>27.87</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>25.15</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>24.82</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>20.12</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>26.23</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>23.67</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>23.35</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>18.93</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>10.62</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>9.210000000000001</v>
       </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
       <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
         <v>54.45</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>47.95</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>45.55</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>9771.950000000001</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>55.84</v>
       </c>
     </row>
